--- a/biology/Botanique/Acacia_anceps/Acacia_anceps.xlsx
+++ b/biology/Botanique/Acacia_anceps/Acacia_anceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acacia anceps est une espèce d'arbrisseau endémique d'Australie. C'est une fabacée appartenant au genre Acacia et au sous-genre Phyllodineae. Il est appelé en anglais Port Lincoln wattle (acacia de Port Lincoln)[1], ou two edged wattle (acacia à deux tranchants).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acacia anceps est une espèce d'arbrisseau endémique d'Australie. C'est une fabacée appartenant au genre Acacia et au sous-genre Phyllodineae. Il est appelé en anglais Port Lincoln wattle (acacia de Port Lincoln), ou two edged wattle (acacia à deux tranchants).
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbrisseau touffu est généralement  haut de 1 à 3 mètres. Il fleurit de septembre à février ; ses fleurs sont jaunes[2]. Ses branches sont dressées, rigides, glabres et poussent vers l'extérieur, formant un buisson d'un diamètre de 1 à 3 mètres[1]. Ses phyllodes sont épais et rigides, de forme linéaire à obovale. Ils atteignent une longueur d'environ 5 cm  et une largeur de 3,5 cm.
-Les inflorescences solitaires sont axillaires, formant de gros capitules globuleux. Après la floraison apparaissent des gousses de couleur rouge à brune. Ces gousses sont plates ou ondulées, longues d'environ 5 cm et larges de 1,2 cm ; elles contiennent des graines brun foncé ou marbrées de forme elliptique[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbrisseau touffu est généralement  haut de 1 à 3 mètres. Il fleurit de septembre à février ; ses fleurs sont jaunes. Ses branches sont dressées, rigides, glabres et poussent vers l'extérieur, formant un buisson d'un diamètre de 1 à 3 mètres. Ses phyllodes sont épais et rigides, de forme linéaire à obovale. Ils atteignent une longueur d'environ 5 cm  et une largeur de 3,5 cm.
+Les inflorescences solitaires sont axillaires, formant de gros capitules globuleux. Après la floraison apparaissent des gousses de couleur rouge à brune. Ces gousses sont plates ou ondulées, longues d'environ 5 cm et larges de 1,2 cm ; elles contiennent des graines brun foncé ou marbrées de forme elliptique.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est originaire du sud de l'Australie-Occidentale, le long de la côte de la région de Goldfields-Esperance[2], et des zones côtières de l'Australie-Méridionale jusqu'à la péninsule d'Eyre à l'est[3]. Il pousse bien dans les sols sableux calcaires et les sols sableux rouge-brun peu profonds, parmi la végétation des dunes côtières ou des écosystèmes de broussailles ouverts.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est originaire du sud de l'Australie-Occidentale, le long de la côte de la région de Goldfields-Esperance, et des zones côtières de l'Australie-Méridionale jusqu'à la péninsule d'Eyre à l'est. Il pousse bien dans les sols sableux calcaires et les sols sableux rouge-brun peu profonds, parmi la végétation des dunes côtières ou des écosystèmes de broussailles ouverts.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acacia anceps est utilisé comme acacia ornemental dans les régions côtières et  comme brise-vent. Il peut être multiplié à partir de graines ou de boutures mais a besoin de sols bien drainés. Il tolère le plein soleil ou la mi-ombre et résiste à la sécheresse[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acacia anceps est utilisé comme acacia ornemental dans les régions côtières et  comme brise-vent. Il peut être multiplié à partir de graines ou de boutures mais a besoin de sols bien drainés. Il tolère le plein soleil ou la mi-ombre et résiste à la sécheresse.
 </t>
         </is>
       </c>
